--- a/po_analysis_by_asin/B0D25F2113_po_data.xlsx
+++ b/po_analysis_by_asin/B0D25F2113_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>18</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>8</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>18</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>8</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>18</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>8</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>38</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>

--- a/po_analysis_by_asin/B0D25F2113_po_data.xlsx
+++ b/po_analysis_by_asin/B0D25F2113_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -639,6 +640,341 @@
       </c>
       <c r="B8" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.480209072210315</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.56399961904803</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.426348164135643</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.96624333259564</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.495537288913398</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.39823542192577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.934846236243997</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.28542178411073</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.791588749014174</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.05555894959298</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6909233062268656</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.84266932315588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4619263269180682</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.44989715191124</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6122890686421584</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.47488348322643</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4651286503753816</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.78525695830169</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4139432516641209</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.2513043546253</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.08521102905916175</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.31344426656407</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.2149417574821492</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.46369395563225</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.5112372991017289</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.6916204602418</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.379653935563614</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.32356042275926</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.103184535376143</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.76693528041127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.213721612773368</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.36224361507177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.424683790030275</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.45273228632235</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.308395639480938</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.08655519742219</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.712959685218292</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.06056181761268</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.669836558144749</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.885525531376365</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.13284367193281</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.907981389108306</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D25F2113_po_data.xlsx
+++ b/po_analysis_by_asin/B0D25F2113_po_data.xlsx
@@ -653,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,16 +672,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -690,12 +680,6 @@
       <c r="B2" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.480209072210315</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.56399961904803</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -704,12 +688,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.426348164135643</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.96624333259564</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -718,12 +696,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.495537288913398</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.39823542192577</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -732,12 +704,6 @@
       <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.934846236243997</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.28542178411073</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -746,12 +712,6 @@
       <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.791588749014174</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.05555894959298</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -760,12 +720,6 @@
       <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.6909233062268656</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12.84266932315588</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -774,12 +728,6 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.4619263269180682</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12.44989715191124</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -788,12 +736,6 @@
       <c r="B9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.6122890686421584</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12.47488348322643</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -802,12 +744,6 @@
       <c r="B10" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.4651286503753816</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.78525695830169</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -816,12 +752,6 @@
       <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.4139432516641209</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.2513043546253</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -830,12 +760,6 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.08521102905916175</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12.31344426656407</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -844,12 +768,6 @@
       <c r="B13" t="n">
         <v>6</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.2149417574821492</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11.46369395563225</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -858,12 +776,6 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.5112372991017289</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.6916204602418</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -872,12 +784,6 @@
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.379653935563614</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.32356042275926</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -886,12 +792,6 @@
       <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.103184535376143</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10.76693528041127</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -900,12 +800,6 @@
       <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>-1.213721612773368</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10.36224361507177</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -914,12 +808,6 @@
       <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1.424683790030275</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10.45273228632235</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -928,12 +816,6 @@
       <c r="B19" t="n">
         <v>4</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.308395639480938</v>
-      </c>
-      <c r="D19" t="n">
-        <v>10.08655519742219</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -942,12 +824,6 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1.712959685218292</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10.06056181761268</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -956,12 +832,6 @@
       <c r="B21" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
-        <v>-1.669836558144749</v>
-      </c>
-      <c r="D21" t="n">
-        <v>9.885525531376365</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -969,12 +839,6 @@
       </c>
       <c r="B22" t="n">
         <v>4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.13284367193281</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9.907981389108306</v>
       </c>
     </row>
   </sheetData>
